--- a/source/my_trips/Hiking_journal.xlsx
+++ b/source/my_trips/Hiking_journal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Nr. stamp</t>
   </si>
@@ -205,13 +205,43 @@
     <t>https://www.komoot.com/de-de/tour/1690820750</t>
   </si>
   <si>
-    <t>HWN123 Gasttätte  Rinderstall</t>
+    <t>HWN123 Gasttätte Rinderstall</t>
   </si>
   <si>
     <t>HWN075 Hahnenkleeklippen</t>
   </si>
   <si>
     <t>HWN018 Grenzweg am Kaffeehorst</t>
+  </si>
+  <si>
+    <t>HWN161 Stefanshütte</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/tour/1994151965</t>
+  </si>
+  <si>
+    <t>HWN159 Stöberhai</t>
+  </si>
+  <si>
+    <t>HWN158 Hassenstein</t>
+  </si>
+  <si>
+    <t>HWN043 Hohe Tür - Wasserscheide Weser-Elbe</t>
+  </si>
+  <si>
+    <t>HWN030 Ilsestein</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/tour/2020967722</t>
+  </si>
+  <si>
+    <t>HWN007 Gasthaus Plessenburg</t>
+  </si>
+  <si>
+    <t>HWN025 Oberförster-Koch-Denkmal</t>
+  </si>
+  <si>
+    <t>HWN026 Mönchsbuche</t>
   </si>
 </sst>
 </file>
@@ -221,7 +251,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -258,6 +288,10 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -273,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -309,6 +343,9 @@
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -547,14 +584,14 @@
       </c>
       <c r="E1" s="3">
         <f>SUM(E2:E126)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3">
         <f>COUNTA(A2:A250)</f>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
@@ -1140,7 +1177,7 @@
       <c r="A47" s="2">
         <v>123.0</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="4">
@@ -1169,8 +1206,108 @@
         <v>45569.0</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>161.0</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" s="4">
+        <v>45627.0</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>159.0</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C51" s="4">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>158.0</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>43.0</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45627.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="4">
+        <v>45676.0</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="4">
+        <v>45676.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="4">
+        <v>45676.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="4">
+        <v>45676.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="28">
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D8:D10"/>
@@ -1187,6 +1324,11 @@
     <mergeCell ref="E27:E31"/>
     <mergeCell ref="D41:D45"/>
     <mergeCell ref="D46:D49"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="E54:E57"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D35:D37"/>
@@ -1194,7 +1336,6 @@
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="E41:E45"/>
-    <mergeCell ref="E46:E49"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
@@ -1211,7 +1352,9 @@
     <hyperlink r:id="rId12" ref="D38"/>
     <hyperlink r:id="rId13" ref="D41"/>
     <hyperlink r:id="rId14" ref="D46"/>
+    <hyperlink r:id="rId15" ref="D50"/>
+    <hyperlink r:id="rId16" ref="D54"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/source/my_trips/Hiking_journal.xlsx
+++ b/source/my_trips/Hiking_journal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Nr. stamp</t>
   </si>
@@ -242,6 +242,48 @@
   </si>
   <si>
     <t>HWN026 Mönchsbuche</t>
+  </si>
+  <si>
+    <t>HWN099 Harzer Holzdampflok</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/tour/2088114497</t>
+  </si>
+  <si>
+    <t>HWN100 Ebersburg</t>
+  </si>
+  <si>
+    <t>HWN218 Neustädter Talsperre</t>
+  </si>
+  <si>
+    <t>HWN098 Ruine Hohnstein</t>
+  </si>
+  <si>
+    <t>HWN164 Stiefmutter</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/tour/2112900887</t>
+  </si>
+  <si>
+    <t>HWN165 Wendel-Eiche</t>
+  </si>
+  <si>
+    <t>HWN090 Roter Schuss</t>
+  </si>
+  <si>
+    <t>HWN035 Gasthaus Armeleuteberg</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/tour/2021000530</t>
+  </si>
+  <si>
+    <t>HWN034 Scharfenstein</t>
+  </si>
+  <si>
+    <t>HWN032 Gasthaus Christianental</t>
+  </si>
+  <si>
+    <t>HWN031 Agnesberg</t>
   </si>
 </sst>
 </file>
@@ -584,14 +626,14 @@
       </c>
       <c r="E1" s="3">
         <f>SUM(E2:E126)</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3">
         <f>COUNTA(A2:A250)</f>
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2">
@@ -1306,8 +1348,147 @@
         <v>45676.0</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>99.0</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="4">
+        <v>45724.0</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>100.0</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="4">
+        <v>45724.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>218.0</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="4">
+        <v>45724.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C61" s="4">
+        <v>45724.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>164.0</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" s="4">
+        <v>45739.0</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E62" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>165.0</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" s="4">
+        <v>45739.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="4">
+        <v>45739.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="4">
+        <v>45778.0</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="4">
+        <v>45778.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="4">
+        <v>45778.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="4">
+        <v>45778.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="34">
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D8:D10"/>
@@ -1326,9 +1507,15 @@
     <mergeCell ref="D46:D49"/>
     <mergeCell ref="D50:D53"/>
     <mergeCell ref="D54:D57"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="D65:D68"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="E54:E57"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="E65:E68"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D35:D37"/>
@@ -1354,7 +1541,10 @@
     <hyperlink r:id="rId14" ref="D46"/>
     <hyperlink r:id="rId15" ref="D50"/>
     <hyperlink r:id="rId16" ref="D54"/>
+    <hyperlink r:id="rId17" ref="D58"/>
+    <hyperlink r:id="rId18" ref="D62"/>
+    <hyperlink r:id="rId19" ref="D65"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/source/my_trips/Hiking_journal.xlsx
+++ b/source/my_trips/Hiking_journal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Nr. stamp</t>
   </si>
@@ -284,6 +284,24 @@
   </si>
   <si>
     <t>HWN031 Agnesberg</t>
+  </si>
+  <si>
+    <t>HWN014 Schnarcherklippe</t>
+  </si>
+  <si>
+    <t>https://www.komoot.com/de-de/user/2719148859996/routes</t>
+  </si>
+  <si>
+    <t>HWN020 Barrenberg</t>
+  </si>
+  <si>
+    <t>HWN021 Heleneruh</t>
+  </si>
+  <si>
+    <t>HWN017 Trudenstein</t>
+  </si>
+  <si>
+    <t>HWN013 Ahrentsklint</t>
   </si>
 </sst>
 </file>
@@ -626,14 +644,14 @@
       </c>
       <c r="E1" s="3">
         <f>SUM(E2:E126)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3">
         <f>COUNTA(A2:A250)</f>
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
@@ -1487,8 +1505,69 @@
         <v>45778.0</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="4">
+        <v>45806.0</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="4">
+        <v>45806.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C71" s="4">
+        <v>45806.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C72" s="4">
+        <v>45806.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C73" s="4">
+        <v>45806.0</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="36">
     <mergeCell ref="D4:D7"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="D8:D10"/>
@@ -1510,12 +1589,14 @@
     <mergeCell ref="D58:D61"/>
     <mergeCell ref="D62:D64"/>
     <mergeCell ref="D65:D68"/>
+    <mergeCell ref="D69:D73"/>
     <mergeCell ref="E46:E49"/>
     <mergeCell ref="E50:E53"/>
     <mergeCell ref="E54:E57"/>
     <mergeCell ref="E58:E61"/>
     <mergeCell ref="E62:E64"/>
     <mergeCell ref="E65:E68"/>
+    <mergeCell ref="E69:E73"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="E32:E34"/>
     <mergeCell ref="D35:D37"/>
@@ -1544,7 +1625,8 @@
     <hyperlink r:id="rId17" ref="D58"/>
     <hyperlink r:id="rId18" ref="D62"/>
     <hyperlink r:id="rId19" ref="D65"/>
+    <hyperlink r:id="rId20" ref="D69"/>
   </hyperlinks>
-  <drawing r:id="rId20"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>